--- a/Accounts-Schedules/تدريب والمارت 30-10-2025.xlsx
+++ b/Accounts-Schedules/تدريب والمارت 30-10-2025.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="258">
   <si>
     <t>Here is the list of trainees scheduled for training at Walmart on Thursday, October 30th , from 7 PM to 4 AM.</t>
   </si>
@@ -559,160 +559,169 @@
     <t>محمد عبد العزيز بدر</t>
   </si>
   <si>
+    <t>سيف عسكر</t>
+  </si>
+  <si>
+    <t>محمد مجدي قدري</t>
+  </si>
+  <si>
+    <t>محمد طارق</t>
+  </si>
+  <si>
+    <t>ياسر صلاح</t>
+  </si>
+  <si>
+    <t>ملك ابراهيم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>معاذ أحمد</t>
+  </si>
+  <si>
+    <t>عبد المنعم عبد الرحمن</t>
+  </si>
+  <si>
+    <t>احمد محمد مصطفى</t>
+  </si>
+  <si>
+    <t>جعفر منهل</t>
+  </si>
+  <si>
+    <t>محمود حسن</t>
+  </si>
+  <si>
+    <t>مهاب ايهاب</t>
+  </si>
+  <si>
+    <t>عمر محمود</t>
+  </si>
+  <si>
+    <t>بيتر لوني</t>
+  </si>
+  <si>
+    <t>شيماء محمد الأمين</t>
+  </si>
+  <si>
+    <t>علاء الدين طه</t>
+  </si>
+  <si>
+    <t>روكسي العبودي</t>
+  </si>
+  <si>
+    <t>ابراهيم محمود</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>خالد محمود</t>
+  </si>
+  <si>
+    <t>هاجر محمد فكري</t>
+  </si>
+  <si>
+    <t>عمر محمد جعفر</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
+  </si>
+  <si>
+    <t>أمل علاء الدين توكس</t>
+  </si>
+  <si>
+    <t>حنان قادر</t>
+  </si>
+  <si>
+    <t>احمد الصادق</t>
+  </si>
+  <si>
+    <t>أحمد رأفت</t>
+  </si>
+  <si>
+    <t>حبيبة مصطفى</t>
+  </si>
+  <si>
+    <t>جانا عمرو</t>
+  </si>
+  <si>
+    <t>جون ، بال</t>
+  </si>
+  <si>
+    <t>محمد فتح الرحمن ابراهيم</t>
+  </si>
+  <si>
+    <t>عمر عادل</t>
+  </si>
+  <si>
+    <t>مصطفي احمد</t>
+  </si>
+  <si>
+    <t>محمود احمد</t>
+  </si>
+  <si>
+    <t>فاروق حسام</t>
+  </si>
+  <si>
+    <t>أحمد حافظ</t>
+  </si>
+  <si>
+    <t>علي احمد</t>
+  </si>
+  <si>
+    <t>محمد الطيب</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>سارة الزبيدي</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>رامي يوسف</t>
+  </si>
+  <si>
+    <t>عبدالله عمار</t>
+  </si>
+  <si>
+    <t>أحمد الهواري</t>
+  </si>
+  <si>
+    <t>إياد ياسر</t>
+  </si>
+  <si>
+    <t>جانا حاتم</t>
+  </si>
+  <si>
+    <t>مها الطيب</t>
+  </si>
+  <si>
+    <t>محمد صابر جمعة</t>
+  </si>
+  <si>
+    <t>مصعب عمر</t>
+  </si>
+  <si>
+    <t>يوسف خليل</t>
+  </si>
+  <si>
+    <t>شيماء محمود حسن علي</t>
+  </si>
+  <si>
     <t>جودي محمد</t>
   </si>
   <si>
-    <t>عمر محمد جعفر</t>
-  </si>
-  <si>
-    <t>سيف عسكر</t>
-  </si>
-  <si>
-    <t>معاذ أحمد</t>
-  </si>
-  <si>
-    <t>محمد مجدي قدري</t>
-  </si>
-  <si>
-    <t>ملاك ابراهيم</t>
-  </si>
-  <si>
-    <t>محمد طارق</t>
-  </si>
-  <si>
-    <t>ياسر صلاح</t>
-  </si>
-  <si>
-    <t>عبد المنعم عبد الرحمن</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>احمد محمد مصطفى</t>
-  </si>
-  <si>
-    <t>جعفر منهل</t>
-  </si>
-  <si>
-    <t>محمود حسن</t>
-  </si>
-  <si>
-    <t>مهاب ايهاب</t>
-  </si>
-  <si>
-    <t>عمر محمود</t>
-  </si>
-  <si>
-    <t>بيتر لوني</t>
-  </si>
-  <si>
-    <t>شيماء محمد الأمين</t>
-  </si>
-  <si>
-    <t>علاء الدين طه</t>
-  </si>
-  <si>
-    <t>روكسي العبودي</t>
-  </si>
-  <si>
-    <t>ابراهيم محمود</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>خالد محمود</t>
-  </si>
-  <si>
-    <t>هاجر محمد فكري</t>
-  </si>
-  <si>
-    <t>أمل علاء الدين توكس</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>حنان قادر</t>
-  </si>
-  <si>
-    <t>سلم صقر قريش</t>
-  </si>
-  <si>
-    <t>احمد الصادق</t>
-  </si>
-  <si>
-    <t>أحمد رأفت</t>
-  </si>
-  <si>
-    <t>حبيبة مصطفى</t>
-  </si>
-  <si>
-    <t>جانا عمرو</t>
-  </si>
-  <si>
-    <t>جون ، بال</t>
-  </si>
-  <si>
-    <t>محمد فتح الرحمن ابراهيم</t>
-  </si>
-  <si>
-    <t>عمر عادل</t>
-  </si>
-  <si>
-    <t>مصطفي احمد</t>
-  </si>
-  <si>
-    <t>محمود احمد</t>
-  </si>
-  <si>
-    <t>فاروق حسام</t>
-  </si>
-  <si>
-    <t>أحمد حافظ</t>
-  </si>
-  <si>
-    <t>علي احمد</t>
-  </si>
-  <si>
-    <t>محمد الطيب</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>سارة الزبيدي</t>
-  </si>
-  <si>
-    <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>رامي يوسف</t>
-  </si>
-  <si>
-    <t>عبدالله عمار</t>
-  </si>
-  <si>
-    <t>أحمد الهواري</t>
-  </si>
-  <si>
-    <t>إياد ياسر</t>
-  </si>
-  <si>
-    <t>جانا حاتم</t>
-  </si>
-  <si>
-    <t>مها الطيب</t>
-  </si>
-  <si>
-    <t>محمد صابر جمعة</t>
-  </si>
-  <si>
-    <t>مصعب عمر</t>
-  </si>
-  <si>
-    <t>يوسف خليل</t>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>كريم بنونة</t>
   </si>
   <si>
     <t>عبد الله أحمد فتح الله</t>
@@ -725,9 +734,6 @@
   </si>
   <si>
     <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>شيماء محمود حسن علي</t>
   </si>
   <si>
     <t>أسيل طارق</t>
@@ -1869,7 +1875,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF000000"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3440,7 +3446,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="69" ht="15.25"/>
+    <row r="70" ht="15.25" spans="1:5">
       <c r="A70" s="25" t="s">
         <v>1</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:5">
+    <row r="71" ht="15.25" hidden="1" spans="1:5">
       <c r="A71" s="27" t="s">
         <v>126</v>
       </c>
@@ -4522,7 +4529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" ht="15.25" spans="1:5">
       <c r="A134" s="33" t="s">
         <v>139</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" ht="15.25" spans="1:5">
       <c r="A135" s="33" t="s">
         <v>142</v>
       </c>
@@ -4556,7 +4563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" ht="15.25" spans="1:5">
       <c r="A136" s="33" t="s">
         <v>145</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" ht="15.25" spans="1:5">
       <c r="A137" s="33" t="s">
         <v>147</v>
       </c>
@@ -4586,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" ht="15.25" spans="1:5">
       <c r="A138" s="33" t="s">
         <v>148</v>
       </c>
@@ -4603,7 +4610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" ht="15.25" spans="1:5">
       <c r="A139" s="33" t="s">
         <v>150</v>
       </c>
@@ -4618,7 +4625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" ht="15.25" spans="1:5">
       <c r="A140" s="33" t="s">
         <v>151</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" ht="15.25" spans="1:5">
       <c r="A141" s="33" t="s">
         <v>153</v>
       </c>
@@ -4650,7 +4657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" ht="15.25" spans="1:5">
       <c r="A142" s="33" t="s">
         <v>154</v>
       </c>
@@ -4667,7 +4674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" ht="15.25" spans="1:5">
       <c r="A143" s="33" t="s">
         <v>155</v>
       </c>
@@ -4682,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" ht="15.25" spans="1:5">
       <c r="A144" s="33" t="s">
         <v>156</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" ht="15.25" spans="1:5">
       <c r="A145" s="33" t="s">
         <v>157</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" ht="15.25" spans="1:5">
       <c r="A146" s="33" t="s">
         <v>159</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" ht="15.25" spans="1:5">
       <c r="A147" s="33" t="s">
         <v>160</v>
       </c>
@@ -4761,7 +4768,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I79"/>
+  <dimension ref="B1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H78" sqref="B3:H78"/>
@@ -4809,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="2:9">
+    <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4861,7 +4868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="2:9">
+    <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4887,7 +4894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="2:9">
+    <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4913,7 +4920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" ht="15.25" spans="2:9">
+    <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4939,7 +4946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" ht="15.25" spans="2:9">
+    <row r="8" spans="2:9">
       <c r="B8" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" ht="15.25" spans="2:9">
+    <row r="9" spans="2:9">
       <c r="B9" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" ht="15.25" spans="2:9">
+    <row r="10" spans="2:9">
       <c r="B10" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5017,7 +5024,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" ht="15.25" spans="2:9">
+    <row r="11" spans="2:9">
       <c r="B11" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D12" s="7">
-        <v>11118129254</v>
+        <v>1060710692</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>164</v>
@@ -5066,10 +5073,10 @@
         <v>166</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="2:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D13" s="7">
-        <v>1148417872</v>
+        <v>1018644882</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>164</v>
@@ -5092,10 +5099,10 @@
         <v>166</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="2:9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D14" s="7">
-        <v>1060710692</v>
+        <v>1017880694</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>164</v>
@@ -5118,10 +5125,10 @@
         <v>166</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="2:9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D15" s="7">
-        <v>1150872122</v>
+        <v>1012680394</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>164</v>
@@ -5138,16 +5145,16 @@
         <v>178</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="2:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5155,7 +5162,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D16" s="7">
-        <v>1018644882</v>
+        <v>1126257048</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>164</v>
@@ -5164,16 +5171,16 @@
         <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="2:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5181,25 +5188,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D17" s="7">
-        <v>1126257048</v>
+        <v>1150872122</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="2:9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5207,25 +5214,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D18" s="7">
-        <v>1017880694</v>
+        <v>1552670605</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="2:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5233,51 +5240,51 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D19" s="7">
-        <v>1012680394</v>
+        <v>1277749159</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C20" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D20" s="7">
-        <v>1552670605</v>
+      <c r="D20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5285,7 +5292,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D21" s="7">
-        <v>1277749159</v>
+        <v>1280325265</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>164</v>
@@ -5294,16 +5301,16 @@
         <v>185</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="2:9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5311,7 +5318,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>164</v>
@@ -5320,16 +5327,16 @@
         <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="2:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5337,7 +5344,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D23" s="7">
-        <v>1280325265</v>
+        <v>1222727414</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>164</v>
@@ -5346,16 +5353,16 @@
         <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="2:9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>164</v>
@@ -5372,16 +5379,16 @@
         <v>188</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="2:9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5389,7 +5396,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D25" s="7">
-        <v>1222727414</v>
+        <v>1505672706</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>164</v>
@@ -5398,24 +5405,24 @@
         <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="2:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C26" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>112</v>
+      <c r="D26" s="7">
+        <v>1108106097</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>164</v>
@@ -5424,16 +5431,16 @@
         <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5441,25 +5448,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D27" s="7">
-        <v>1505672706</v>
+        <v>1115054271</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="2:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5467,25 +5474,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D28" s="7">
-        <v>1108106097</v>
+        <v>1030297300</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="2:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5493,25 +5500,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D29" s="7">
-        <v>1115054271</v>
+        <v>1015592867</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="2:9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5519,7 +5526,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D30" s="7">
-        <v>1030297300</v>
+        <v>1148417872</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>164</v>
@@ -5528,16 +5535,16 @@
         <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="2:9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5545,77 +5552,77 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D31" s="7">
-        <v>1015592867</v>
+        <v>1080652791</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="2:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C32" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D32" s="7">
-        <v>1080652791</v>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="I32" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="2:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C33" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>58</v>
+      <c r="D33" s="7">
+        <v>1507554968</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="2:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5623,7 +5630,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D34" s="7">
-        <v>1507554968</v>
+        <v>1128527883</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>164</v>
@@ -5632,16 +5639,16 @@
         <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="2:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5649,7 +5656,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D35" s="7">
-        <v>1128527883</v>
+        <v>1157567918</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>164</v>
@@ -5658,16 +5665,16 @@
         <v>203</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="2:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5675,7 +5682,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D36" s="7">
-        <v>1157567918</v>
+        <v>1025280837</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>164</v>
@@ -5684,16 +5691,16 @@
         <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="2:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5701,7 +5708,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D37" s="7">
-        <v>1025280837</v>
+        <v>1124069931</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>164</v>
@@ -5710,16 +5717,16 @@
         <v>205</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="2:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D38" s="7">
-        <v>1124069931</v>
+        <v>1152380728</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>164</v>
@@ -5736,24 +5743,24 @@
         <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="2:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C39" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D39" s="7">
-        <v>1152380728</v>
+      <c r="D39" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>164</v>
@@ -5762,16 +5769,16 @@
         <v>207</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="2:9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5779,7 +5786,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>164</v>
@@ -5788,24 +5795,24 @@
         <v>208</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="2:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C41" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>100</v>
+      <c r="D41" s="7">
+        <v>1151377227</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>164</v>
@@ -5814,24 +5821,24 @@
         <v>209</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="2:9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C42" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D42" s="7">
-        <v>1151377227</v>
+      <c r="D42" s="9">
+        <v>1026896314</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>164</v>
@@ -5840,24 +5847,24 @@
         <v>210</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="2:9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="5">
         <v>0.791666666666667</v>
       </c>
       <c r="C43" s="6">
         <v>0.166666666666667</v>
       </c>
-      <c r="D43" s="9">
-        <v>1026896314</v>
+      <c r="D43" s="7">
+        <v>1022749434</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>164</v>
@@ -5866,16 +5873,16 @@
         <v>211</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="2:9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D44" s="7">
-        <v>1022749434</v>
+        <v>1070413418</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>164</v>
@@ -5892,16 +5899,16 @@
         <v>212</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="2:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D45" s="7">
-        <v>1070413418</v>
+        <v>1098465023</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>164</v>
@@ -5918,16 +5925,16 @@
         <v>213</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="2:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5935,25 +5942,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D46" s="7">
-        <v>1098465023</v>
+        <v>1030512619</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="2:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5961,25 +5968,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D47" s="7">
-        <v>1030512619</v>
+        <v>1271844482</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="2:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D48" s="7">
-        <v>1271844482</v>
+        <v>1100286082</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>164</v>
@@ -5996,16 +6003,16 @@
         <v>218</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6013,7 +6020,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D49" s="7">
-        <v>1100286082</v>
+        <v>1095463120</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>164</v>
@@ -6022,16 +6029,16 @@
         <v>219</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="2:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6039,7 +6046,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D50" s="7">
-        <v>1095463120</v>
+        <v>1099884506</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>164</v>
@@ -6048,16 +6055,16 @@
         <v>220</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="2:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6065,7 +6072,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D51" s="7">
-        <v>1099884506</v>
+        <v>1080299044</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>164</v>
@@ -6074,16 +6081,16 @@
         <v>221</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="2:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6091,7 +6098,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D52" s="7">
-        <v>1080299044</v>
+        <v>1007809277</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>164</v>
@@ -6100,16 +6107,16 @@
         <v>222</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="2:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6117,7 +6124,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D53" s="7">
-        <v>1007809277</v>
+        <v>1123298769</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>164</v>
@@ -6126,16 +6133,16 @@
         <v>223</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="2:9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D54" s="7">
-        <v>1123298769</v>
+        <v>1044237280</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>164</v>
@@ -6152,16 +6159,16 @@
         <v>224</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="2:9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6169,7 +6176,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D55" s="7">
-        <v>1044237280</v>
+        <v>1507947778</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>164</v>
@@ -6178,16 +6185,16 @@
         <v>225</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="2:9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6195,7 +6202,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D56" s="7">
-        <v>1507947778</v>
+        <v>1092610230</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>164</v>
@@ -6204,16 +6211,16 @@
         <v>226</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="2:9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D57" s="7">
-        <v>1143585920</v>
+        <v>11118129254</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>164</v>
@@ -6230,16 +6237,16 @@
         <v>227</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="2:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6247,25 +6254,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D58" s="7">
-        <v>1005695576</v>
+        <v>1143585920</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6273,25 +6280,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D59" s="7">
-        <v>1281887573</v>
+        <v>1005695576</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="2:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6299,25 +6306,25 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D60" s="7">
-        <v>1092610230</v>
+        <v>1281887573</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="2:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>164</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>84</v>
@@ -6343,7 +6350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" ht="15.25" spans="2:9">
+    <row r="62" spans="2:9">
       <c r="B62" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6357,19 +6364,19 @@
         <v>164</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" ht="15.25" spans="2:9">
+    <row r="63" spans="2:9">
       <c r="B63" s="5">
         <v>0.791666666666667</v>
       </c>
@@ -6383,7 +6390,7 @@
         <v>164</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>84</v>
@@ -6395,7 +6402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" ht="15.25" spans="2:9">
+    <row r="64" spans="2:9">
       <c r="B64" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>164</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>84</v>
@@ -6421,7 +6428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" ht="15.25" spans="2:9">
+    <row r="65" spans="2:9">
       <c r="B65" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>164</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>84</v>
@@ -6447,7 +6454,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" ht="15.25" spans="2:9">
+    <row r="66" spans="2:9">
       <c r="B66" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6461,10 +6468,10 @@
         <v>164</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>42</v>
@@ -6473,7 +6480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" ht="15.25" spans="2:9">
+    <row r="67" spans="2:9">
       <c r="B67" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6487,10 +6494,10 @@
         <v>164</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>42</v>
@@ -6499,7 +6506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" ht="15.25" spans="2:9">
+    <row r="68" spans="2:9">
       <c r="B68" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6513,10 +6520,10 @@
         <v>164</v>
       </c>
       <c r="F68" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>42</v>
@@ -6525,7 +6532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" ht="15.25" spans="2:9">
+    <row r="69" spans="2:9">
       <c r="B69" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6539,10 +6546,10 @@
         <v>164</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>17</v>
@@ -6551,7 +6558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" ht="15.25" spans="2:9">
+    <row r="70" spans="2:9">
       <c r="B70" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6565,10 +6572,10 @@
         <v>164</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>24</v>
@@ -6577,7 +6584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" ht="15.25" spans="2:9">
+    <row r="71" spans="2:9">
       <c r="B71" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6591,10 +6598,10 @@
         <v>164</v>
       </c>
       <c r="F71" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>86</v>
@@ -6603,7 +6610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" ht="15.25" spans="2:9">
+    <row r="72" spans="2:9">
       <c r="B72" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6617,10 +6624,10 @@
         <v>164</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>24</v>
@@ -6629,7 +6636,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" ht="15.25" spans="2:9">
+    <row r="73" spans="2:9">
       <c r="B73" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6643,10 +6650,10 @@
         <v>164</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>144</v>
@@ -6655,7 +6662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" ht="15.25" spans="2:9">
+    <row r="74" spans="2:9">
       <c r="B74" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6669,10 +6676,10 @@
         <v>164</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>124</v>
@@ -6681,7 +6688,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" ht="15.25" spans="2:9">
+    <row r="75" spans="2:9">
       <c r="B75" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6695,19 +6702,19 @@
         <v>164</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" ht="15.25" spans="2:9">
+    <row r="76" spans="2:9">
       <c r="B76" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6721,19 +6728,19 @@
         <v>164</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" ht="15.25" spans="2:9">
+    <row r="77" spans="2:9">
       <c r="B77" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6747,19 +6754,19 @@
         <v>164</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I77" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" ht="15.25" spans="2:9">
+    <row r="78" spans="2:9">
       <c r="B78" s="10">
         <v>0.791666666666667</v>
       </c>
@@ -6773,19 +6780,18 @@
         <v>164</v>
       </c>
       <c r="F78" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G78" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G78" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="H78" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" ht="15.25"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I78" etc:filterBottomFollowUsedRange="0">
     <sortState ref="B3:I78">
